--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="180" windowWidth="49680" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -645,8 +645,11 @@
       <c r="AI2">
         <v>3</v>
       </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -752,8 +755,11 @@
       <c r="AI3">
         <v>3</v>
       </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -859,8 +865,11 @@
       <c r="AI4">
         <v>6</v>
       </c>
+      <c r="AJ4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -966,8 +975,11 @@
       <c r="AI5">
         <v>9</v>
       </c>
+      <c r="AJ5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +1064,11 @@
       <c r="AI6">
         <v>11</v>
       </c>
+      <c r="AJ6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1138,8 +1153,11 @@
       <c r="AI7">
         <v>5</v>
       </c>
+      <c r="AJ7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1242,11 @@
       <c r="AI8">
         <v>3</v>
       </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1331,11 @@
       <c r="AI9">
         <v>8</v>
       </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +1408,11 @@
       <c r="AI10" s="2">
         <v>5</v>
       </c>
+      <c r="AJ10" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1458,8 +1485,11 @@
       <c r="AI11" s="2">
         <v>11</v>
       </c>
+      <c r="AJ11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1532,8 +1562,11 @@
       <c r="AI12" s="2">
         <v>2</v>
       </c>
+      <c r="AJ12" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1604,6 +1637,9 @@
         <v>3</v>
       </c>
       <c r="AI13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="2">
         <v>3</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -426,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
+      <selection pane="bottomRight" activeCell="AQ25" sqref="AQ24:AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -538,8 +538,14 @@
       <c r="AI1" s="1">
         <v>43418</v>
       </c>
+      <c r="AJ1" s="1">
+        <v>43420</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>43422</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -648,8 +654,11 @@
       <c r="AJ2">
         <v>3</v>
       </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -758,8 +767,11 @@
       <c r="AJ3">
         <v>3</v>
       </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -868,8 +880,11 @@
       <c r="AJ4">
         <v>6</v>
       </c>
+      <c r="AK4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -978,8 +993,11 @@
       <c r="AJ5">
         <v>9</v>
       </c>
+      <c r="AK5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1085,11 @@
       <c r="AJ6">
         <v>11</v>
       </c>
+      <c r="AK6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1156,8 +1177,11 @@
       <c r="AJ7">
         <v>5</v>
       </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1245,8 +1269,11 @@
       <c r="AJ8">
         <v>3</v>
       </c>
+      <c r="AK8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1361,11 @@
       <c r="AJ9">
         <v>10</v>
       </c>
+      <c r="AK9">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1441,11 @@
       <c r="AJ10" s="2">
         <v>5</v>
       </c>
+      <c r="AK10" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1488,8 +1521,11 @@
       <c r="AJ11" s="2">
         <v>11</v>
       </c>
+      <c r="AK11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1565,8 +1601,11 @@
       <c r="AJ12" s="2">
         <v>2</v>
       </c>
+      <c r="AK12" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1641,6 +1680,9 @@
       </c>
       <c r="AJ13" s="2">
         <v>3</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -426,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AQ25" sqref="AQ24:AQ25"/>
+      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -544,8 +544,11 @@
       <c r="AK1" s="1">
         <v>43422</v>
       </c>
+      <c r="AL1" s="1">
+        <v>43423</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -657,8 +660,11 @@
       <c r="AK2">
         <v>3</v>
       </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="AK3">
         <v>3</v>
       </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -883,8 +892,11 @@
       <c r="AK4">
         <v>6</v>
       </c>
+      <c r="AL4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1008,11 @@
       <c r="AK5">
         <v>9</v>
       </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1088,8 +1103,11 @@
       <c r="AK6">
         <v>11</v>
       </c>
+      <c r="AL6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1180,8 +1198,11 @@
       <c r="AK7">
         <v>5</v>
       </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1293,11 @@
       <c r="AK8">
         <v>3</v>
       </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1388,11 @@
       <c r="AK9">
         <v>11</v>
       </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1444,8 +1471,11 @@
       <c r="AK10" s="2">
         <v>7</v>
       </c>
+      <c r="AL10" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +1554,11 @@
       <c r="AK11" s="2">
         <v>11</v>
       </c>
+      <c r="AL11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1604,8 +1637,11 @@
       <c r="AK12" s="2">
         <v>3</v>
       </c>
+      <c r="AL12" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1682,6 +1718,9 @@
         <v>3</v>
       </c>
       <c r="AK13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="2">
         <v>5</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>Carex grayi</t>
   </si>
@@ -50,12 +50,15 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +69,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,15 +107,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,19 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
+      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -547,8 +574,11 @@
       <c r="AL1" s="1">
         <v>43423</v>
       </c>
+      <c r="AM1" s="1">
+        <v>43425</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -779,8 +809,11 @@
       <c r="AL3">
         <v>3</v>
       </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -895,8 +928,11 @@
       <c r="AL4">
         <v>6</v>
       </c>
+      <c r="AM4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +1045,13 @@
         <v>9</v>
       </c>
       <c r="AL5">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AM5">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1145,11 @@
       <c r="AL6">
         <v>11</v>
       </c>
+      <c r="AM6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1243,11 @@
       <c r="AL7">
         <v>5</v>
       </c>
+      <c r="AM7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1341,11 @@
       <c r="AL8">
         <v>3</v>
       </c>
+      <c r="AM8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1439,11 @@
       <c r="AL9">
         <v>2</v>
       </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1474,8 +1525,11 @@
       <c r="AL10" s="2">
         <v>8</v>
       </c>
+      <c r="AM10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1557,8 +1611,11 @@
       <c r="AL11" s="2">
         <v>11</v>
       </c>
+      <c r="AM11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1640,8 +1697,11 @@
       <c r="AL12" s="2">
         <v>3</v>
       </c>
+      <c r="AM12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1722,6 +1782,269 @@
       </c>
       <c r="AL13" s="2">
         <v>5</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>367</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>368</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>369</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:39">
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>370</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -453,19 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -577,8 +577,11 @@
       <c r="AM1" s="1">
         <v>43425</v>
       </c>
+      <c r="AN1" s="1">
+        <v>43427</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -693,8 +696,14 @@
       <c r="AL2">
         <v>3</v>
       </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="AM3">
         <v>3</v>
       </c>
+      <c r="AN3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -931,8 +943,11 @@
       <c r="AM4">
         <v>6</v>
       </c>
+      <c r="AN4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1065,11 @@
       <c r="AM5">
         <v>9</v>
       </c>
+      <c r="AN5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1146,10 +1164,13 @@
         <v>11</v>
       </c>
       <c r="AM6">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="AN6">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1267,11 @@
       <c r="AM7">
         <v>5</v>
       </c>
+      <c r="AN7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1344,8 +1368,11 @@
       <c r="AM8">
         <v>3</v>
       </c>
+      <c r="AN8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1442,8 +1469,11 @@
       <c r="AM9">
         <v>2</v>
       </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1528,8 +1558,11 @@
       <c r="AM10" s="2">
         <v>9</v>
       </c>
+      <c r="AN10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +1647,11 @@
       <c r="AM11" s="2">
         <v>11</v>
       </c>
+      <c r="AN11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1700,8 +1736,11 @@
       <c r="AM12" s="2">
         <v>4</v>
       </c>
+      <c r="AN12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1786,8 +1825,11 @@
       <c r="AM13" s="2">
         <v>6</v>
       </c>
+      <c r="AN13" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1851,8 +1893,11 @@
       <c r="AM14" s="2">
         <v>7</v>
       </c>
+      <c r="AN14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +1961,11 @@
       <c r="AM15" s="2">
         <v>4</v>
       </c>
+      <c r="AN15" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1981,8 +2029,11 @@
       <c r="AM16" s="2">
         <v>1</v>
       </c>
+      <c r="AN16" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="4:39">
+    <row r="17" spans="4:40">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2045,6 +2096,9 @@
       </c>
       <c r="AM17" s="2">
         <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="1240" windowWidth="35400" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,19 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AN17" sqref="AN17"/>
+      <selection pane="bottomRight" activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -580,8 +580,11 @@
       <c r="AN1" s="1">
         <v>43427</v>
       </c>
+      <c r="AO1" s="1">
+        <v>43430</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -702,8 +705,11 @@
       <c r="AN2">
         <v>3</v>
       </c>
+      <c r="AO2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -824,8 +830,11 @@
       <c r="AN3">
         <v>3</v>
       </c>
+      <c r="AO3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -946,8 +955,11 @@
       <c r="AN4">
         <v>6</v>
       </c>
+      <c r="AO4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1080,11 @@
       <c r="AN5">
         <v>9</v>
       </c>
+      <c r="AO5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1184,11 @@
       <c r="AN6">
         <v>11</v>
       </c>
+      <c r="AO6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1288,11 @@
       <c r="AN7">
         <v>5</v>
       </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1392,11 @@
       <c r="AN8">
         <v>4</v>
       </c>
+      <c r="AO8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1472,8 +1496,11 @@
       <c r="AN9">
         <v>2</v>
       </c>
+      <c r="AO9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1561,8 +1588,11 @@
       <c r="AN10" s="2">
         <v>9</v>
       </c>
+      <c r="AO10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1650,8 +1680,11 @@
       <c r="AN11" s="2">
         <v>11</v>
       </c>
+      <c r="AO11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1739,8 +1772,11 @@
       <c r="AN12" s="2">
         <v>4</v>
       </c>
+      <c r="AO12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1828,8 +1864,11 @@
       <c r="AN13" s="2">
         <v>6</v>
       </c>
+      <c r="AO13" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +1935,11 @@
       <c r="AN14" s="2">
         <v>7</v>
       </c>
+      <c r="AO14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:41">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1964,8 +2006,11 @@
       <c r="AN15" s="2">
         <v>4</v>
       </c>
+      <c r="AO15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:41">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AN16" s="2">
         <v>1</v>
       </c>
+      <c r="AO16" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="4:40">
+    <row r="17" spans="4:41">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2098,6 +2146,9 @@
         <v>0</v>
       </c>
       <c r="AN17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2">
         <v>1</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -107,8 +107,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -119,11 +121,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,19 +457,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AO18" sqref="AO18"/>
+      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -583,8 +587,11 @@
       <c r="AO1" s="1">
         <v>43430</v>
       </c>
+      <c r="AP1" s="1">
+        <v>43432</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -708,8 +715,11 @@
       <c r="AO2">
         <v>3</v>
       </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="AO3">
         <v>3</v>
       </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -958,8 +971,11 @@
       <c r="AO4">
         <v>6</v>
       </c>
+      <c r="AP4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1099,11 @@
       <c r="AO5">
         <v>9</v>
       </c>
+      <c r="AP5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1206,11 @@
       <c r="AO6">
         <v>12</v>
       </c>
+      <c r="AP6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1313,11 @@
       <c r="AO7">
         <v>5</v>
       </c>
+      <c r="AP7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +1420,11 @@
       <c r="AO8">
         <v>4</v>
       </c>
+      <c r="AP8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1499,8 +1527,11 @@
       <c r="AO9">
         <v>2</v>
       </c>
+      <c r="AP9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +1622,11 @@
       <c r="AO10" s="2">
         <v>9</v>
       </c>
+      <c r="AP10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1683,8 +1717,11 @@
       <c r="AO11" s="2">
         <v>11</v>
       </c>
+      <c r="AP11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +1812,11 @@
       <c r="AO12" s="2">
         <v>4</v>
       </c>
+      <c r="AP12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1867,8 +1907,11 @@
       <c r="AO13" s="2">
         <v>7</v>
       </c>
+      <c r="AP13" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +1981,11 @@
       <c r="AO14" s="2">
         <v>7</v>
       </c>
+      <c r="AP14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2055,11 @@
       <c r="AO15" s="2">
         <v>5</v>
       </c>
+      <c r="AP15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2080,8 +2129,11 @@
       <c r="AO16" s="2">
         <v>1</v>
       </c>
+      <c r="AP16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:41">
+    <row r="17" spans="4:42">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2149,6 +2201,9 @@
         <v>1</v>
       </c>
       <c r="AO17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="2">
         <v>1</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -107,8 +107,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -121,13 +123,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,19 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomRight" activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -590,8 +594,11 @@
       <c r="AP1" s="1">
         <v>43432</v>
       </c>
+      <c r="AQ1" s="1">
+        <v>43434</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -718,8 +725,11 @@
       <c r="AP2">
         <v>3</v>
       </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="AP3">
         <v>3</v>
       </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="AP4">
         <v>6</v>
       </c>
+      <c r="AQ4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1118,11 @@
       <c r="AP5">
         <v>9</v>
       </c>
+      <c r="AQ5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1209,8 +1228,11 @@
       <c r="AP6">
         <v>12</v>
       </c>
+      <c r="AQ6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1316,8 +1338,11 @@
       <c r="AP7">
         <v>5</v>
       </c>
+      <c r="AQ7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1448,11 @@
       <c r="AP8">
         <v>4</v>
       </c>
+      <c r="AQ8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1530,8 +1558,11 @@
       <c r="AP9">
         <v>2</v>
       </c>
+      <c r="AQ9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1625,8 +1656,11 @@
       <c r="AP10" s="2">
         <v>9</v>
       </c>
+      <c r="AQ10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1754,11 @@
       <c r="AP11" s="2">
         <v>11</v>
       </c>
+      <c r="AQ11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1815,8 +1852,11 @@
       <c r="AP12" s="2">
         <v>4</v>
       </c>
+      <c r="AQ12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1910,8 +1950,11 @@
       <c r="AP13" s="2">
         <v>7</v>
       </c>
+      <c r="AQ13" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:43">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1984,8 +2027,11 @@
       <c r="AP14" s="2">
         <v>7</v>
       </c>
+      <c r="AQ14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:43">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2058,8 +2104,11 @@
       <c r="AP15" s="2">
         <v>5</v>
       </c>
+      <c r="AQ15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:43">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2132,8 +2181,11 @@
       <c r="AP16" s="2">
         <v>3</v>
       </c>
+      <c r="AQ16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:42">
+    <row r="17" spans="4:43">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2205,6 +2257,9 @@
       </c>
       <c r="AP17" s="2">
         <v>1</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
   <si>
     <t>Carex grayi</t>
   </si>
@@ -107,7 +107,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -117,21 +117,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,19 +491,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AV21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AQ18" sqref="AQ18"/>
+      <selection pane="bottomRight" activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -597,8 +627,23 @@
       <c r="AQ1" s="1">
         <v>43434</v>
       </c>
+      <c r="AR1" s="1">
+        <v>43436</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43437</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43439</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>43441</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>43444</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -728,8 +773,23 @@
       <c r="AQ2">
         <v>3</v>
       </c>
+      <c r="AR2">
+        <v>3</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>3</v>
+      </c>
+      <c r="AV2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -859,8 +919,23 @@
       <c r="AQ3">
         <v>3</v>
       </c>
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <v>3</v>
+      </c>
+      <c r="AV3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -990,8 +1065,23 @@
       <c r="AQ4">
         <v>6</v>
       </c>
+      <c r="AR4">
+        <v>6</v>
+      </c>
+      <c r="AS4">
+        <v>6</v>
+      </c>
+      <c r="AT4">
+        <v>6</v>
+      </c>
+      <c r="AU4">
+        <v>6</v>
+      </c>
+      <c r="AV4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1211,23 @@
       <c r="AQ5">
         <v>9</v>
       </c>
+      <c r="AR5">
+        <v>9</v>
+      </c>
+      <c r="AS5">
+        <v>9</v>
+      </c>
+      <c r="AT5">
+        <v>9</v>
+      </c>
+      <c r="AU5">
+        <v>9</v>
+      </c>
+      <c r="AV5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:48">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1336,23 @@
       <c r="AQ6">
         <v>12</v>
       </c>
+      <c r="AR6">
+        <v>12</v>
+      </c>
+      <c r="AS6">
+        <v>12</v>
+      </c>
+      <c r="AT6">
+        <v>12</v>
+      </c>
+      <c r="AU6">
+        <v>12</v>
+      </c>
+      <c r="AV6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:48">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1341,8 +1461,23 @@
       <c r="AQ7">
         <v>6</v>
       </c>
+      <c r="AR7">
+        <v>6</v>
+      </c>
+      <c r="AS7">
+        <v>6</v>
+      </c>
+      <c r="AT7">
+        <v>7</v>
+      </c>
+      <c r="AU7">
+        <v>7</v>
+      </c>
+      <c r="AV7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:48">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1586,23 @@
       <c r="AQ8">
         <v>4</v>
       </c>
+      <c r="AR8">
+        <v>4</v>
+      </c>
+      <c r="AS8">
+        <v>4</v>
+      </c>
+      <c r="AT8">
+        <v>4</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:48">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1561,8 +1711,23 @@
       <c r="AQ9">
         <v>2</v>
       </c>
+      <c r="AR9">
+        <v>2</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:48">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1659,8 +1824,23 @@
       <c r="AQ10" s="2">
         <v>9</v>
       </c>
+      <c r="AR10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:48">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1757,8 +1937,23 @@
       <c r="AQ11" s="2">
         <v>11</v>
       </c>
+      <c r="AR11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:48">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1855,8 +2050,23 @@
       <c r="AQ12" s="2">
         <v>4</v>
       </c>
+      <c r="AR12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:48">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1953,8 +2163,23 @@
       <c r="AQ13" s="2">
         <v>7</v>
       </c>
+      <c r="AR13" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>7</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:48">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2030,8 +2255,23 @@
       <c r="AQ14" s="2">
         <v>7</v>
       </c>
+      <c r="AR14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:48">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2107,8 +2347,23 @@
       <c r="AQ15" s="2">
         <v>5</v>
       </c>
+      <c r="AR15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:48">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2184,8 +2439,23 @@
       <c r="AQ16" s="2">
         <v>3</v>
       </c>
+      <c r="AR16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:43">
+    <row r="17" spans="4:48">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2260,6 +2530,245 @@
       </c>
       <c r="AQ17" s="2">
         <v>3</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:48">
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>371</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>4</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>4</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>8</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:48">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>372</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:48">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>373</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:48">
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>374</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -107,8 +107,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -151,6 +153,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -162,6 +165,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,19 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AW21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AL26" sqref="AL26"/>
+      <selection pane="bottomRight" activeCell="AW18" sqref="AW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -642,8 +646,11 @@
       <c r="AV1" s="1">
         <v>43444</v>
       </c>
+      <c r="AW1" s="1">
+        <v>43446</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="AV2">
         <v>3</v>
       </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -934,8 +944,11 @@
       <c r="AV3">
         <v>4</v>
       </c>
+      <c r="AW3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +1093,11 @@
       <c r="AV4">
         <v>6</v>
       </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AV5">
         <v>9</v>
       </c>
+      <c r="AW5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1370,11 @@
       <c r="AV6">
         <v>12</v>
       </c>
+      <c r="AW6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1476,8 +1498,11 @@
       <c r="AV7">
         <v>7</v>
       </c>
+      <c r="AW7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1601,8 +1626,11 @@
       <c r="AV8">
         <v>5</v>
       </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1726,8 +1754,11 @@
       <c r="AV9">
         <v>4</v>
       </c>
+      <c r="AW9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1839,8 +1870,11 @@
       <c r="AV10" s="2">
         <v>9</v>
       </c>
+      <c r="AW10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1952,8 +1986,11 @@
       <c r="AV11" s="2">
         <v>11</v>
       </c>
+      <c r="AW11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2065,8 +2102,11 @@
       <c r="AV12" s="2">
         <v>5</v>
       </c>
+      <c r="AW12" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2178,8 +2218,11 @@
       <c r="AV13" s="2">
         <v>7</v>
       </c>
+      <c r="AW13" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2270,8 +2313,11 @@
       <c r="AV14" s="2">
         <v>7</v>
       </c>
+      <c r="AW14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2408,11 @@
       <c r="AV15" s="2">
         <v>5</v>
       </c>
+      <c r="AW15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2454,8 +2503,11 @@
       <c r="AV16" s="2">
         <v>3</v>
       </c>
+      <c r="AW16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:48">
+    <row r="17" spans="4:49">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2546,8 +2598,11 @@
       <c r="AV17" s="2">
         <v>4</v>
       </c>
+      <c r="AW17" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="4:48">
+    <row r="18" spans="4:49">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -2602,8 +2657,11 @@
       <c r="AV18" s="2">
         <v>12</v>
       </c>
+      <c r="AW18" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="4:48">
+    <row r="19" spans="4:49">
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -2658,8 +2716,11 @@
       <c r="AV19" s="2">
         <v>8</v>
       </c>
+      <c r="AW19" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="4:48">
+    <row r="20" spans="4:49">
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -2714,8 +2775,11 @@
       <c r="AV20" s="2">
         <v>3</v>
       </c>
+      <c r="AW20" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="4:48">
+    <row r="21" spans="4:49">
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -2768,6 +2832,9 @@
         <v>0</v>
       </c>
       <c r="AV21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3">
         <v>0</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1240" windowWidth="35400" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="1240" windowWidth="12500" windowHeight="21800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -141,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -154,6 +156,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -166,6 +169,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW21"/>
+  <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AW18" sqref="AW18"/>
+      <selection pane="bottomRight" activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -649,8 +653,11 @@
       <c r="AW1" s="1">
         <v>43446</v>
       </c>
+      <c r="AX1" s="1">
+        <v>43448</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="AW2">
         <v>3</v>
       </c>
+      <c r="AX2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -947,8 +957,11 @@
       <c r="AW3">
         <v>4</v>
       </c>
+      <c r="AX3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1096,8 +1109,11 @@
       <c r="AW4">
         <v>6</v>
       </c>
+      <c r="AX4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AW5">
         <v>9</v>
       </c>
+      <c r="AX5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1373,8 +1392,11 @@
       <c r="AW6">
         <v>12</v>
       </c>
+      <c r="AX6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1523,11 @@
       <c r="AW7">
         <v>7</v>
       </c>
+      <c r="AX7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1629,8 +1654,11 @@
       <c r="AW8">
         <v>5</v>
       </c>
+      <c r="AX8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1757,8 +1785,11 @@
       <c r="AW9">
         <v>4</v>
       </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1873,8 +1904,11 @@
       <c r="AW10" s="2">
         <v>9</v>
       </c>
+      <c r="AX10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1989,8 +2023,11 @@
       <c r="AW11" s="2">
         <v>11</v>
       </c>
+      <c r="AX11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2105,8 +2142,11 @@
       <c r="AW12" s="2">
         <v>6</v>
       </c>
+      <c r="AX12" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2221,8 +2261,11 @@
       <c r="AW13" s="2">
         <v>7</v>
       </c>
+      <c r="AX13" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:50">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2316,8 +2359,11 @@
       <c r="AW14" s="2">
         <v>7</v>
       </c>
+      <c r="AX14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:50">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2457,11 @@
       <c r="AW15" s="2">
         <v>5</v>
       </c>
+      <c r="AX15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:50">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2506,8 +2555,11 @@
       <c r="AW16" s="2">
         <v>3</v>
       </c>
+      <c r="AX16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:49">
+    <row r="17" spans="4:50">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2601,8 +2653,11 @@
       <c r="AW17" s="2">
         <v>5</v>
       </c>
+      <c r="AX17" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="4:49">
+    <row r="18" spans="4:50">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2715,11 @@
       <c r="AW18" s="2">
         <v>12</v>
       </c>
+      <c r="AX18" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="4:49">
+    <row r="19" spans="4:50">
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +2777,11 @@
       <c r="AW19" s="2">
         <v>9</v>
       </c>
+      <c r="AX19" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="4:49">
+    <row r="20" spans="4:50">
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -2778,8 +2839,11 @@
       <c r="AW20" s="2">
         <v>3</v>
       </c>
+      <c r="AX20" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="4:49">
+    <row r="21" spans="4:50">
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -2836,6 +2900,9 @@
       </c>
       <c r="AW21" s="3">
         <v>0</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -107,8 +107,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -157,6 +159,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -170,6 +173,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,19 +503,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX21"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AX14" sqref="AX14"/>
+      <selection pane="bottomRight" activeCell="AY22" sqref="AY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -656,8 +660,11 @@
       <c r="AX1" s="1">
         <v>43448</v>
       </c>
+      <c r="AY1" s="1">
+        <v>43450</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -808,8 +815,11 @@
       <c r="AX2">
         <v>3</v>
       </c>
+      <c r="AY2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -960,8 +970,11 @@
       <c r="AX3">
         <v>4</v>
       </c>
+      <c r="AY3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1112,8 +1125,11 @@
       <c r="AX4">
         <v>6</v>
       </c>
+      <c r="AY4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1264,8 +1280,11 @@
       <c r="AX5">
         <v>9</v>
       </c>
+      <c r="AY5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +1414,11 @@
       <c r="AX6">
         <v>12</v>
       </c>
+      <c r="AY6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1526,8 +1548,11 @@
       <c r="AX7">
         <v>7</v>
       </c>
+      <c r="AY7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1657,8 +1682,11 @@
       <c r="AX8">
         <v>5</v>
       </c>
+      <c r="AY8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1788,8 +1816,11 @@
       <c r="AX9">
         <v>4</v>
       </c>
+      <c r="AY9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1907,8 +1938,11 @@
       <c r="AX10" s="2">
         <v>9</v>
       </c>
+      <c r="AY10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2026,8 +2060,11 @@
       <c r="AX11" s="2">
         <v>11</v>
       </c>
+      <c r="AY11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2145,8 +2182,11 @@
       <c r="AX12" s="2">
         <v>6</v>
       </c>
+      <c r="AY12" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2264,8 +2304,11 @@
       <c r="AX13" s="2">
         <v>9</v>
       </c>
+      <c r="AY13" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2405,11 @@
       <c r="AX14" s="2">
         <v>7</v>
       </c>
+      <c r="AY14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2460,8 +2506,11 @@
       <c r="AX15" s="2">
         <v>5</v>
       </c>
+      <c r="AY15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2558,8 +2607,11 @@
       <c r="AX16" s="2">
         <v>3</v>
       </c>
+      <c r="AY16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:50">
+    <row r="17" spans="4:51">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2656,8 +2708,11 @@
       <c r="AX17" s="2">
         <v>5</v>
       </c>
+      <c r="AY17" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="4:50">
+    <row r="18" spans="4:51">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2773,11 @@
       <c r="AX18" s="2">
         <v>12</v>
       </c>
+      <c r="AY18" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="4:50">
+    <row r="19" spans="4:51">
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -2780,8 +2838,11 @@
       <c r="AX19" s="2">
         <v>11</v>
       </c>
+      <c r="AY19" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="4:50">
+    <row r="20" spans="4:51">
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -2842,8 +2903,11 @@
       <c r="AX20" s="2">
         <v>4</v>
       </c>
+      <c r="AY20" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="4:50">
+    <row r="21" spans="4:51">
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -2903,6 +2967,9 @@
       </c>
       <c r="AX21" s="3">
         <v>3</v>
+      </c>
+      <c r="AY21" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -107,8 +107,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -145,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -160,6 +162,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -174,6 +177,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,19 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AY22" sqref="AY22"/>
+      <selection pane="bottomRight" activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -663,8 +667,11 @@
       <c r="AY1" s="1">
         <v>43450</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43451</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="AY2">
         <v>3</v>
       </c>
+      <c r="AZ2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -973,8 +983,11 @@
       <c r="AY3">
         <v>4</v>
       </c>
+      <c r="AZ3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1128,8 +1141,11 @@
       <c r="AY4">
         <v>6</v>
       </c>
+      <c r="AZ4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1283,8 +1299,11 @@
       <c r="AY5">
         <v>9</v>
       </c>
+      <c r="AZ5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1436,11 @@
       <c r="AY6">
         <v>12</v>
       </c>
+      <c r="AZ6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1573,11 @@
       <c r="AY7">
         <v>7</v>
       </c>
+      <c r="AZ7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1685,8 +1710,11 @@
       <c r="AY8">
         <v>5</v>
       </c>
+      <c r="AZ8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1819,8 +1847,11 @@
       <c r="AY9">
         <v>4</v>
       </c>
+      <c r="AZ9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1941,8 +1972,11 @@
       <c r="AY10" s="2">
         <v>9</v>
       </c>
+      <c r="AZ10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2063,8 +2097,11 @@
       <c r="AY11" s="2">
         <v>11</v>
       </c>
+      <c r="AZ11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2185,8 +2222,11 @@
       <c r="AY12" s="2">
         <v>6</v>
       </c>
+      <c r="AZ12" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2307,8 +2347,11 @@
       <c r="AY13" s="2">
         <v>9</v>
       </c>
+      <c r="AZ13" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2408,8 +2451,11 @@
       <c r="AY14" s="2">
         <v>7</v>
       </c>
+      <c r="AZ14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2555,11 @@
       <c r="AY15" s="2">
         <v>5</v>
       </c>
+      <c r="AZ15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2610,8 +2659,11 @@
       <c r="AY16" s="2">
         <v>3</v>
       </c>
+      <c r="AZ16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:51">
+    <row r="17" spans="4:52">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2711,8 +2763,11 @@
       <c r="AY17" s="2">
         <v>5</v>
       </c>
+      <c r="AZ17" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="4:51">
+    <row r="18" spans="4:52">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2831,11 @@
       <c r="AY18" s="2">
         <v>12</v>
       </c>
+      <c r="AZ18" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="4:51">
+    <row r="19" spans="4:52">
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2899,11 @@
       <c r="AY19" s="2">
         <v>12</v>
       </c>
+      <c r="AZ19" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="4:51">
+    <row r="20" spans="4:52">
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -2906,8 +2967,11 @@
       <c r="AY20" s="2">
         <v>5</v>
       </c>
+      <c r="AZ20" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="4:51">
+    <row r="21" spans="4:52">
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -2969,6 +3033,9 @@
         <v>3</v>
       </c>
       <c r="AY21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AZ21" s="3">
         <v>5</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/timetogerminate/germination_trials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1240" windowWidth="12500" windowHeight="21800" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="16480" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="12">
   <si>
     <t>Carex grayi</t>
   </si>
@@ -53,11 +58,14 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>21/21/18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -182,6 +190,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -506,20 +522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="AZ21" sqref="AZ21"/>
+      <selection pane="bottomRight" activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -670,8 +686,14 @@
       <c r="AZ1" s="1">
         <v>43451</v>
       </c>
+      <c r="BA1" s="1">
+        <v>43454</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -828,8 +850,14 @@
       <c r="AZ2">
         <v>3</v>
       </c>
+      <c r="BA2">
+        <v>3</v>
+      </c>
+      <c r="BB2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1014,14 @@
       <c r="AZ3">
         <v>4</v>
       </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1178,14 @@
       <c r="AZ4">
         <v>6</v>
       </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1302,8 +1342,14 @@
       <c r="AZ5">
         <v>9</v>
       </c>
+      <c r="BA5">
+        <v>9</v>
+      </c>
+      <c r="BB5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1439,8 +1485,14 @@
       <c r="AZ6">
         <v>12</v>
       </c>
+      <c r="BA6">
+        <v>12</v>
+      </c>
+      <c r="BB6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1628,14 @@
       <c r="AZ7">
         <v>7</v>
       </c>
+      <c r="BA7">
+        <v>7</v>
+      </c>
+      <c r="BB7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1713,8 +1771,14 @@
       <c r="AZ8">
         <v>5</v>
       </c>
+      <c r="BA8">
+        <v>5</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1850,8 +1914,14 @@
       <c r="AZ9">
         <v>4</v>
       </c>
+      <c r="BA9">
+        <v>4</v>
+      </c>
+      <c r="BB9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +2045,14 @@
       <c r="AZ10" s="2">
         <v>9</v>
       </c>
+      <c r="BA10" s="2">
+        <v>9</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2100,8 +2176,14 @@
       <c r="AZ11" s="2">
         <v>11</v>
       </c>
+      <c r="BA11" s="2">
+        <v>11</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2225,8 +2307,14 @@
       <c r="AZ12" s="2">
         <v>6</v>
       </c>
+      <c r="BA12" s="2">
+        <v>6</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2350,8 +2438,14 @@
       <c r="AZ13" s="2">
         <v>9</v>
       </c>
+      <c r="BA13" s="2">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2548,14 @@
       <c r="AZ14" s="2">
         <v>7</v>
       </c>
+      <c r="BA14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2558,8 +2658,14 @@
       <c r="AZ15" s="2">
         <v>5</v>
       </c>
+      <c r="BA15" s="2">
+        <v>5</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2662,8 +2768,14 @@
       <c r="AZ16" s="2">
         <v>3</v>
       </c>
+      <c r="BA16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="4:52">
+    <row r="17" spans="4:54" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2766,8 +2878,14 @@
       <c r="AZ17" s="2">
         <v>5</v>
       </c>
+      <c r="BA17" s="2">
+        <v>5</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="4:52">
+    <row r="18" spans="4:54" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +2952,14 @@
       <c r="AZ18" s="2">
         <v>12</v>
       </c>
+      <c r="BA18" s="2">
+        <v>12</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="4:52">
+    <row r="19" spans="4:54" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3026,14 @@
       <c r="AZ19" s="2">
         <v>12</v>
       </c>
+      <c r="BA19" s="2">
+        <v>13</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="20" spans="4:52">
+    <row r="20" spans="4:54" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -2970,8 +3100,14 @@
       <c r="AZ20" s="2">
         <v>6</v>
       </c>
+      <c r="BA20" s="2">
+        <v>6</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="4:52">
+    <row r="21" spans="4:54" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -3036,6 +3172,12 @@
         <v>5</v>
       </c>
       <c r="AZ21" s="3">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="3">
+        <v>5</v>
+      </c>
+      <c r="BB21" s="3">
         <v>5</v>
       </c>
     </row>

--- a/germination_trials/carex_data.xlsx
+++ b/germination_trials/carex_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="16480" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="3700" windowWidth="16480" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -148,12 +157,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -523,19 +533,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB21"/>
+  <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="BB2" sqref="BB2"/>
+      <selection pane="bottomRight" activeCell="BB32" sqref="BB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -692,8 +702,11 @@
       <c r="BB1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="BC1" s="1">
+        <v>43474</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1348,8 +1361,11 @@
       <c r="BB5">
         <v>9</v>
       </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1491,8 +1507,11 @@
       <c r="BB6">
         <v>12</v>
       </c>
+      <c r="BC6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2554,8 +2573,11 @@
       <c r="BB14" s="2">
         <v>7</v>
       </c>
+      <c r="BC14" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2686,11 @@
       <c r="BB15" s="2">
         <v>5</v>
       </c>
+      <c r="BC15" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2884,8 +2909,11 @@
       <c r="BB17" s="2">
         <v>5</v>
       </c>
+      <c r="BC17" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +2987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -3106,8 +3134,11 @@
       <c r="BB20" s="2">
         <v>6</v>
       </c>
+      <c r="BC20" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="21" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -3179,6 +3210,206 @@
       </c>
       <c r="BB21" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:55" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>375</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22">
+        <v>1</v>
+      </c>
+      <c r="BA22">
+        <v>3</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>6</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:55" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>376</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:55" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>377</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>4</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="4:55" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>378</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
